--- a/Projektmanagement/Projektstrukturplan/Projektstrukturplan.xlsx
+++ b/Projektmanagement/Projektstrukturplan/Projektstrukturplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Informatik\ITB INFRASTRUKTUR\PraktikantIT\SAP\Diplomarbeit\Dokumentation\Projektpläne\Projektstrukturplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\5.Klasse\Diplomarbeit\Dokumentation\Projektpläne\Projektstrukturplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6438E7A4-2583-4D00-B6E9-5EC7EA0ADE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30A0CA9-38B0-4A26-ACDD-08F17D3FF182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="148">
   <si>
     <t>Projektstart</t>
   </si>
@@ -385,12 +385,6 @@
     <t>Entwicklung einer Fahrgemeinschafts-App für die Getzner Textil AG</t>
   </si>
   <si>
-    <t>Implentierung abgeschlossen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Server aufsetzen </t>
-  </si>
-  <si>
     <t>Anfangen die App zu Entwickeln</t>
   </si>
   <si>
@@ -404,6 +398,78 @@
   </si>
   <si>
     <t>Fahrt finden und buchen funktioniert.</t>
+  </si>
+  <si>
+    <t>Planungsphase abgeschlossen</t>
+  </si>
+  <si>
+    <t>Termin bis: 29.08.2023</t>
+  </si>
+  <si>
+    <t>Termin bis: 30.08.2023</t>
+  </si>
+  <si>
+    <t>Termin bis: 01.09.2023</t>
+  </si>
+  <si>
+    <t>Termin bis: 05.09.2023</t>
+  </si>
+  <si>
+    <t>Termin bis: 25.10.2024</t>
+  </si>
+  <si>
+    <t>Termin bis: 30.10.2023</t>
+  </si>
+  <si>
+    <t>Termin bis: 05.11.2023</t>
+  </si>
+  <si>
+    <t>Termin bis: 15.11.2023</t>
+  </si>
+  <si>
+    <t>Termin bis: 20.10.2023</t>
+  </si>
+  <si>
+    <t>Termin bis: 03.03.2024</t>
+  </si>
+  <si>
+    <t>Termin bis: 15.03.2024</t>
+  </si>
+  <si>
+    <t>Termin bis: 22.03.2024</t>
+  </si>
+  <si>
+    <t>Termin bis: 28.03.2024</t>
+  </si>
+  <si>
+    <t>Termin bis: 30.03.2024</t>
+  </si>
+  <si>
+    <t>Termin bis: 10.03.2024</t>
+  </si>
+  <si>
+    <t>Termin bis: 26.03.2024</t>
+  </si>
+  <si>
+    <t>Termin bis: 02.04.2024</t>
+  </si>
+  <si>
+    <t>Dauer in Tagen:  247 Tage</t>
+  </si>
+  <si>
+    <t>Termin bis: 28.07.2023</t>
+  </si>
+  <si>
+    <t>Termin bis: 13.03.2024</t>
+  </si>
+  <si>
+    <t>Termin bis: 27.03.2024</t>
+  </si>
+  <si>
+    <t>Umsetzungsphase abgeschlossen</t>
+  </si>
+  <si>
+    <t>Diplomarbeit abgeschlossen</t>
   </si>
 </sst>
 </file>
@@ -466,7 +532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,6 +856,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -829,21 +898,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,9 +931,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -903,7 +971,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1009,7 +1077,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1151,7 +1219,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1161,39 +1229,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T61"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q63" sqref="A1:Q63"/>
+    <sheetView zoomScale="58" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="5" max="5" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.5546875" customWidth="1"/>
-    <col min="10" max="10" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="E1" s="30" t="s">
+    <row r="1" spans="2:20" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E1" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="S1" s="31" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="S1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="31"/>
-    </row>
-    <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T1" s="32"/>
+    </row>
+    <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1208,7 +1276,7 @@
       <c r="N2" s="6"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9"/>
       <c r="C3" s="8"/>
       <c r="E3" s="10"/>
@@ -1217,55 +1285,55 @@
       <c r="L3" s="13"/>
       <c r="O3" s="12"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="E4" s="26" t="s">
+      <c r="C4" s="28"/>
+      <c r="E4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="J4" s="26" t="s">
+      <c r="F4" s="28"/>
+      <c r="J4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="N4" s="26" t="s">
+      <c r="K4" s="28"/>
+      <c r="N4" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="27"/>
-    </row>
-    <row r="5" spans="2:20" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="2:20" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="29"/>
-    </row>
-    <row r="6" spans="2:20" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="19" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="30"/>
+    </row>
+    <row r="6" spans="2:20" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="E7" s="19" t="s">
+      <c r="C7" s="21"/>
+      <c r="E7" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="J7" s="19" t="s">
+      <c r="F7" s="21"/>
+      <c r="J7" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="N7" s="19" t="s">
+      <c r="K7" s="21"/>
+      <c r="N7" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="O7" s="20"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="O7" s="21"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1291,7 +1359,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1317,25 +1385,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
+    <row r="10" spans="2:20" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="E10" s="21" t="s">
+      <c r="C10" s="22"/>
+      <c r="E10" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="J10" s="21" t="s">
+      <c r="F10" s="22"/>
+      <c r="J10" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="K10" s="21"/>
-      <c r="N10" s="21" t="s">
+      <c r="K10" s="22"/>
+      <c r="N10" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="O10" s="21"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="O10" s="22"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1361,7 +1429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1387,30 +1455,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="5"/>
       <c r="F13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="19" t="s">
+    <row r="14" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="E14" s="19" t="s">
+      <c r="C14" s="21"/>
+      <c r="E14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="J14" s="19" t="s">
+      <c r="F14" s="21"/>
+      <c r="J14" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="20"/>
-      <c r="N14" s="19" t="s">
+      <c r="K14" s="21"/>
+      <c r="N14" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="O14" s="20"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="O14" s="21"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1436,7 +1504,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
@@ -1462,25 +1530,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="21" t="s">
+    <row r="17" spans="2:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="E17" s="21" t="s">
+      <c r="C17" s="22"/>
+      <c r="E17" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="J17" s="21" t="s">
+      <c r="F17" s="22"/>
+      <c r="J17" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="21"/>
-      <c r="N17" s="21" t="s">
+      <c r="K17" s="22"/>
+      <c r="N17" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="O17" s="21"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O17" s="22"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>73</v>
       </c>
@@ -1506,7 +1574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1532,30 +1600,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="5"/>
       <c r="F20" s="5"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="19" t="s">
+    <row r="21" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="E21" s="19" t="s">
+      <c r="C21" s="21"/>
+      <c r="E21" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="J21" s="19" t="s">
+      <c r="F21" s="21"/>
+      <c r="J21" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K21" s="20"/>
-      <c r="N21" s="19" t="s">
+      <c r="K21" s="21"/>
+      <c r="N21" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="O21" s="20"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O21" s="21"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1581,7 +1649,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
@@ -1607,25 +1675,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="s">
+    <row r="24" spans="2:15" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="E24" s="21" t="s">
+      <c r="C24" s="22"/>
+      <c r="E24" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="J24" s="21" t="s">
+      <c r="F24" s="22"/>
+      <c r="J24" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="K24" s="21"/>
-      <c r="N24" s="21" t="s">
+      <c r="K24" s="22"/>
+      <c r="N24" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O24" s="21"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O24" s="22"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>72</v>
       </c>
@@ -1651,7 +1719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
@@ -1677,30 +1745,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="5"/>
       <c r="F27" s="5"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="19" t="s">
+    <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="E28" s="19" t="s">
+      <c r="C28" s="21"/>
+      <c r="E28" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="J28" s="19" t="s">
+      <c r="F28" s="21"/>
+      <c r="J28" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="K28" s="20"/>
-      <c r="N28" s="19" t="s">
+      <c r="K28" s="21"/>
+      <c r="N28" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="O28" s="20"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O28" s="21"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
@@ -1726,7 +1794,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
@@ -1752,25 +1820,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="21" t="s">
+    <row r="31" spans="2:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="E31" s="21" t="s">
+      <c r="C31" s="22"/>
+      <c r="E31" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="J31" s="21" t="s">
+      <c r="F31" s="22"/>
+      <c r="J31" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="K31" s="21"/>
-      <c r="N31" s="21" t="s">
+      <c r="K31" s="22"/>
+      <c r="N31" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="O31" s="21"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O31" s="22"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>72</v>
       </c>
@@ -1796,7 +1864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
@@ -1822,30 +1890,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="5"/>
       <c r="F34" s="5"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="19" t="s">
+    <row r="35" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="E35" s="19" t="s">
+      <c r="C35" s="21"/>
+      <c r="E35" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="J35" s="19" t="s">
+      <c r="F35" s="21"/>
+      <c r="J35" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="K35" s="20"/>
-      <c r="N35" s="19" t="s">
+      <c r="K35" s="21"/>
+      <c r="N35" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="O35" s="20"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O35" s="21"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>14</v>
       </c>
@@ -1871,7 +1939,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>2</v>
       </c>
@@ -1897,25 +1965,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="21" t="s">
+    <row r="38" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="E38" s="21" t="s">
+      <c r="C38" s="22"/>
+      <c r="E38" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="J38" s="21" t="s">
+      <c r="F38" s="22"/>
+      <c r="J38" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="K38" s="21"/>
-      <c r="N38" s="21" t="s">
+      <c r="K38" s="22"/>
+      <c r="N38" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="O38" s="21"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O38" s="22"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>71</v>
       </c>
@@ -1941,7 +2009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
@@ -1967,36 +2035,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C41" s="5"/>
       <c r="F41" s="5"/>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="19" t="s">
+    <row r="42" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="J42" s="22" t="s">
+      <c r="C42" s="21"/>
+      <c r="J42" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K42" s="23"/>
-      <c r="N42" s="19" t="s">
+      <c r="K42" s="24"/>
+      <c r="N42" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="O42" s="20"/>
-    </row>
-    <row r="43" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O42" s="21"/>
+    </row>
+    <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="20"/>
+      <c r="F43" s="21"/>
       <c r="J43" s="3" t="s">
         <v>26</v>
       </c>
@@ -2010,7 +2078,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>2</v>
       </c>
@@ -2036,37 +2104,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="21" t="s">
+    <row r="45" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="21"/>
+      <c r="C45" s="22"/>
       <c r="E45" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J45" s="24" t="s">
+      <c r="J45" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="K45" s="25"/>
-      <c r="N45" s="21" t="s">
+      <c r="K45" s="26"/>
+      <c r="N45" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="O45" s="21"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O45" s="22"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E46" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="F46" s="21"/>
+      <c r="F46" s="22"/>
       <c r="J46" s="2" t="s">
         <v>5</v>
       </c>
@@ -2080,7 +2148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>7</v>
       </c>
@@ -2106,7 +2174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E48" s="2" t="s">
         <v>7</v>
       </c>
@@ -2114,21 +2182,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="19" t="s">
+    <row r="49" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="J49" s="22" t="s">
+      <c r="C49" s="21"/>
+      <c r="J49" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="K49" s="23"/>
-      <c r="N49" s="19" t="s">
+      <c r="K49" s="24"/>
+      <c r="N49" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="O49" s="20"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O49" s="21"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>49</v>
       </c>
@@ -2148,7 +2216,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>2</v>
       </c>
@@ -2168,21 +2236,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B52" s="21" t="s">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="J52" s="24" t="s">
+      <c r="C52" s="22"/>
+      <c r="J52" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="K52" s="25"/>
-      <c r="N52" s="21" t="s">
+      <c r="K52" s="26"/>
+      <c r="N52" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="O52" s="21"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O52" s="22"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>71</v>
       </c>
@@ -2202,7 +2270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>7</v>
       </c>
@@ -2222,14 +2290,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J56" s="22" t="s">
+    <row r="55" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J56" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K56" s="23"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K56" s="24"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J57" s="3" t="s">
         <v>69</v>
       </c>
@@ -2237,7 +2305,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J58" s="2" t="s">
         <v>2</v>
       </c>
@@ -2245,13 +2313,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J59" s="24" t="s">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J59" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="K59" s="25"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K59" s="26"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J60" s="2" t="s">
         <v>5</v>
       </c>
@@ -2259,7 +2327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J61" s="2" t="s">
         <v>7</v>
       </c>
@@ -2339,35 +2407,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="C12:X79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P57" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W63" sqref="W63:X63"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AA60" sqref="AA60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="30" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="11:24" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="N12" s="30" t="s">
+    <row r="12" spans="11:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="N12" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-    </row>
-    <row r="13" spans="11:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+    </row>
+    <row r="13" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -2381,7 +2452,7 @@
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
     </row>
-    <row r="14" spans="11:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="11:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K14" s="9"/>
       <c r="L14" s="8"/>
       <c r="N14" s="10"/>
@@ -2390,55 +2461,55 @@
       <c r="U14" s="13"/>
       <c r="X14" s="12"/>
     </row>
-    <row r="15" spans="11:24" x14ac:dyDescent="0.3">
-      <c r="K15" s="26" t="s">
+    <row r="15" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K15" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="27"/>
-      <c r="N15" s="26" t="s">
+      <c r="L15" s="28"/>
+      <c r="N15" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="27"/>
-      <c r="S15" s="26" t="s">
+      <c r="O15" s="28"/>
+      <c r="S15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="T15" s="27"/>
-      <c r="W15" s="26" t="s">
+      <c r="T15" s="28"/>
+      <c r="W15" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="X15" s="27"/>
-    </row>
-    <row r="16" spans="11:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
+      <c r="X15" s="28"/>
+    </row>
+    <row r="16" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="29"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="29"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="29"/>
-    </row>
-    <row r="17" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K18" s="19" t="s">
+      <c r="N16" s="29"/>
+      <c r="O16" s="30"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="30"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="30"/>
+    </row>
+    <row r="17" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="20"/>
-      <c r="N18" s="19" t="s">
+      <c r="L18" s="24"/>
+      <c r="N18" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="O18" s="20"/>
-      <c r="S18" s="19" t="s">
+      <c r="O18" s="24"/>
+      <c r="S18" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="T18" s="20"/>
-      <c r="W18" s="19" t="s">
+      <c r="T18" s="24"/>
+      <c r="W18" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="X18" s="20"/>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="X18" s="21"/>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C19" s="17"/>
       <c r="K19" s="14" t="s">
         <v>1</v>
@@ -2456,7 +2527,7 @@
         <v>21</v>
       </c>
       <c r="T19" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="W19" s="14" t="s">
         <v>75</v>
@@ -2465,53 +2536,53 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C20" s="18"/>
-      <c r="K20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O20" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="T20" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="W20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X20" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K20" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="X20" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="17"/>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="L21" s="32"/>
-      <c r="N21" s="32" t="s">
+      <c r="L21" s="34"/>
+      <c r="N21" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="O21" s="32"/>
-      <c r="S21" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="T21" s="32"/>
-      <c r="W21" s="32" t="s">
+      <c r="O21" s="34"/>
+      <c r="S21" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="T21" s="34"/>
+      <c r="W21" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="X21" s="32"/>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="X21" s="35"/>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C22" s="18"/>
       <c r="K22" s="15" t="s">
         <v>5</v>
@@ -2523,74 +2594,66 @@
         <v>5</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="S22" s="15" t="s">
         <v>5</v>
       </c>
       <c r="T22" s="15" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="W22" s="15" t="s">
         <v>5</v>
       </c>
       <c r="X22" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C23" s="17"/>
-      <c r="K23" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="N23" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O23" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="S23" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T23" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="W23" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X23" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K23" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="37"/>
+      <c r="N23" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="37"/>
+      <c r="S23" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="T23" s="37"/>
+      <c r="W23" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="X23" s="37"/>
+    </row>
+    <row r="24" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="18"/>
       <c r="L24" s="5"/>
       <c r="O24" s="5"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="25" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="17"/>
-      <c r="K25" s="19" t="s">
+      <c r="K25" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="L25" s="20"/>
-      <c r="N25" s="19" t="s">
+      <c r="L25" s="24"/>
+      <c r="N25" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="O25" s="20"/>
-      <c r="S25" s="19" t="s">
+      <c r="O25" s="24"/>
+      <c r="S25" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="T25" s="20"/>
-      <c r="W25" s="19" t="s">
+      <c r="T25" s="24"/>
+      <c r="W25" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="X25" s="20"/>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="X25" s="21"/>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C26" s="17"/>
       <c r="K26" s="14" t="s">
         <v>8</v>
@@ -2617,15 +2680,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C27" s="18"/>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="19" t="s">
         <v>2</v>
       </c>
       <c r="L27" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="15" t="s">
+      <c r="N27" s="19" t="s">
         <v>2</v>
       </c>
       <c r="O27" s="15" t="s">
@@ -2634,110 +2697,102 @@
       <c r="S27" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T27" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="W27" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X27" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K28" s="32" t="s">
+      <c r="T27" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="X27" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="L28" s="32"/>
-      <c r="N28" s="32" t="s">
+      <c r="L28" s="34"/>
+      <c r="N28" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="O28" s="32"/>
-      <c r="S28" s="32" t="s">
+      <c r="O28" s="34"/>
+      <c r="S28" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="T28" s="32"/>
-      <c r="W28" s="32" t="s">
+      <c r="T28" s="34"/>
+      <c r="W28" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="X28" s="32"/>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="X28" s="35"/>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.25">
       <c r="K29" s="15" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="N29" s="15" t="s">
         <v>5</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="S29" s="15" t="s">
         <v>5</v>
       </c>
       <c r="T29" s="15" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="W29" s="15" t="s">
         <v>5</v>
       </c>
       <c r="X29" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="K30" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="N30" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O30" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="S30" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T30" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="W30" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X30" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="K30" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="37"/>
+      <c r="N30" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" s="37"/>
+      <c r="S30" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="T30" s="37"/>
+      <c r="W30" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="X30" s="37"/>
+    </row>
+    <row r="31" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L31" s="5"/>
       <c r="O31" s="5"/>
       <c r="T31" s="5"/>
     </row>
-    <row r="32" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K32" s="19" t="s">
+    <row r="32" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K32" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="L32" s="20"/>
-      <c r="N32" s="19" t="s">
+      <c r="L32" s="24"/>
+      <c r="N32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="O32" s="20"/>
-      <c r="S32" s="19" t="s">
+      <c r="O32" s="24"/>
+      <c r="S32" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="T32" s="20"/>
-      <c r="W32" s="19" t="s">
+      <c r="T32" s="24"/>
+      <c r="W32" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="X32" s="20"/>
-    </row>
-    <row r="33" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="X32" s="21"/>
+    </row>
+    <row r="33" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K33" s="14" t="s">
         <v>10</v>
       </c>
@@ -2763,14 +2818,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="11:24" x14ac:dyDescent="0.3">
-      <c r="K34" s="15" t="s">
+    <row r="34" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K34" s="19" t="s">
         <v>2</v>
       </c>
       <c r="L34" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="N34" s="15" t="s">
+      <c r="N34" s="19" t="s">
         <v>2</v>
       </c>
       <c r="O34" s="15" t="s">
@@ -2779,110 +2834,102 @@
       <c r="S34" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T34" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="W34" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X34" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="11:24" x14ac:dyDescent="0.3">
-      <c r="K35" s="32" t="s">
+      <c r="T34" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="W34" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="X34" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="11:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="L35" s="32"/>
-      <c r="N35" s="32" t="s">
+      <c r="L35" s="34"/>
+      <c r="N35" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="O35" s="32"/>
-      <c r="S35" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="T35" s="32"/>
-      <c r="W35" s="32" t="s">
+      <c r="O35" s="34"/>
+      <c r="S35" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="T35" s="34"/>
+      <c r="W35" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="X35" s="32"/>
-    </row>
-    <row r="36" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="X35" s="35"/>
+    </row>
+    <row r="36" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K36" s="15" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="N36" s="15" t="s">
         <v>5</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="S36" s="15" t="s">
         <v>5</v>
       </c>
       <c r="T36" s="15" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="W36" s="15" t="s">
         <v>5</v>
       </c>
       <c r="X36" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="11:24" x14ac:dyDescent="0.3">
-      <c r="K37" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="N37" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O37" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="S37" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T37" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="W37" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X37" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="11:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K37" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="L37" s="37"/>
+      <c r="N37" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="O37" s="37"/>
+      <c r="S37" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="T37" s="37"/>
+      <c r="W37" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="X37" s="37"/>
+    </row>
+    <row r="38" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L38" s="5"/>
       <c r="O38" s="5"/>
       <c r="T38" s="5"/>
     </row>
-    <row r="39" spans="11:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K39" s="19" t="s">
+    <row r="39" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K39" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="L39" s="20"/>
-      <c r="N39" s="19" t="s">
+      <c r="L39" s="24"/>
+      <c r="N39" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="O39" s="20"/>
-      <c r="S39" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="T39" s="20"/>
-      <c r="W39" s="19" t="s">
+      <c r="O39" s="24"/>
+      <c r="S39" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="T39" s="24"/>
+      <c r="W39" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="X39" s="20"/>
-    </row>
-    <row r="40" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="X39" s="21"/>
+    </row>
+    <row r="40" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K40" s="14" t="s">
         <v>13</v>
       </c>
@@ -2908,14 +2955,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="11:24" x14ac:dyDescent="0.3">
-      <c r="K41" s="15" t="s">
+    <row r="41" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K41" s="19" t="s">
         <v>2</v>
       </c>
       <c r="L41" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="15" t="s">
+      <c r="N41" s="19" t="s">
         <v>2</v>
       </c>
       <c r="O41" s="15" t="s">
@@ -2924,7 +2971,7 @@
       <c r="S41" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T41" s="15" t="s">
+      <c r="T41" s="19" t="s">
         <v>3</v>
       </c>
       <c r="W41" s="15" t="s">
@@ -2934,100 +2981,94 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="11:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K42" s="32" t="s">
+    <row r="42" spans="11:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K42" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L42" s="32"/>
-      <c r="N42" s="32" t="s">
+      <c r="L42" s="34"/>
+      <c r="N42" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="O42" s="32"/>
-      <c r="S42" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="T42" s="32"/>
-      <c r="W42" s="32" t="s">
+      <c r="O42" s="34"/>
+      <c r="S42" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="T42" s="34"/>
+      <c r="W42" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="X42" s="32"/>
-    </row>
-    <row r="43" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="X42" s="35"/>
+    </row>
+    <row r="43" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K43" s="15" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="N43" s="15" t="s">
         <v>5</v>
       </c>
       <c r="O43" s="15" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="S43" s="15" t="s">
         <v>5</v>
       </c>
       <c r="T43" s="15" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="W43" s="15" t="s">
         <v>5</v>
       </c>
       <c r="X43" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="11:24" x14ac:dyDescent="0.3">
-      <c r="K44" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L44" s="15" t="s">
-        <v>6</v>
-      </c>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K44" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="L44" s="37"/>
       <c r="N44" s="15" t="s">
         <v>7</v>
       </c>
       <c r="O44" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="S44" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T44" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="W44" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X44" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="11:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S44" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="T44" s="37"/>
+      <c r="W44" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="X44" s="37"/>
+    </row>
+    <row r="45" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L45" s="5"/>
       <c r="O45" s="5"/>
       <c r="T45" s="5"/>
     </row>
-    <row r="46" spans="11:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K46" s="19" t="s">
+    <row r="46" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K46" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="L46" s="20"/>
-      <c r="N46" s="19" t="s">
+      <c r="L46" s="24"/>
+      <c r="N46" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="O46" s="20"/>
-      <c r="S46" s="19" t="s">
+      <c r="O46" s="24"/>
+      <c r="S46" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="T46" s="20"/>
-      <c r="W46" s="19" t="s">
+      <c r="T46" s="24"/>
+      <c r="W46" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="X46" s="20"/>
-    </row>
-    <row r="47" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="X46" s="21"/>
+    </row>
+    <row r="47" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K47" s="14" t="s">
         <v>14</v>
       </c>
@@ -3053,126 +3094,118 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="11:24" x14ac:dyDescent="0.3">
-      <c r="K48" s="15" t="s">
+    <row r="48" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K48" s="19" t="s">
         <v>2</v>
       </c>
       <c r="L48" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O48" s="15" t="s">
+      <c r="N48" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="O48" s="19" t="s">
         <v>3</v>
       </c>
       <c r="S48" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T48" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="W48" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X48" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="11:24" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K49" s="32" t="s">
+      <c r="T48" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="W48" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="X48" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="11:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K49" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="L49" s="32"/>
-      <c r="N49" s="32" t="s">
+      <c r="L49" s="34"/>
+      <c r="N49" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="O49" s="32"/>
-      <c r="S49" s="32" t="s">
+      <c r="O49" s="34"/>
+      <c r="S49" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="T49" s="32"/>
-      <c r="W49" s="32" t="s">
+      <c r="T49" s="34"/>
+      <c r="W49" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="X49" s="32"/>
-    </row>
-    <row r="50" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="X49" s="35"/>
+    </row>
+    <row r="50" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K50" s="15" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="L50" s="15" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="N50" s="15" t="s">
         <v>5</v>
       </c>
       <c r="O50" s="15" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="S50" s="15" t="s">
         <v>5</v>
       </c>
       <c r="T50" s="15" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="W50" s="15" t="s">
         <v>5</v>
       </c>
       <c r="X50" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="11:24" x14ac:dyDescent="0.3">
-      <c r="K51" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L51" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="N51" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O51" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="S51" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T51" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="W51" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X51" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="11:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K51" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="L51" s="37"/>
+      <c r="N51" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="O51" s="37"/>
+      <c r="S51" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="T51" s="37"/>
+      <c r="W51" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="X51" s="37"/>
+    </row>
+    <row r="52" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L52" s="5"/>
       <c r="O52" s="16"/>
       <c r="T52" s="5"/>
     </row>
-    <row r="53" spans="11:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K53" s="19" t="s">
+    <row r="53" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K53" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="L53" s="20"/>
-      <c r="N53" s="22" t="s">
+      <c r="L53" s="24"/>
+      <c r="N53" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="O53" s="23"/>
-      <c r="S53" s="22" t="s">
+      <c r="O53" s="24"/>
+      <c r="S53" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="T53" s="23"/>
-      <c r="W53" s="19" t="s">
+      <c r="T53" s="24"/>
+      <c r="W53" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="X53" s="20"/>
-    </row>
-    <row r="54" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="X53" s="21"/>
+    </row>
+    <row r="54" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K54" s="14" t="s">
         <v>15</v>
       </c>
@@ -3198,37 +3231,37 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="11:24" x14ac:dyDescent="0.3">
-      <c r="K55" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L55" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="N55" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O55" s="15" t="s">
+    <row r="55" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K55" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L55" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N55" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="O55" s="19" t="s">
         <v>3</v>
       </c>
       <c r="S55" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T55" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="W55" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X55" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="11:24" x14ac:dyDescent="0.3">
-      <c r="K56" s="32" t="s">
+      <c r="T55" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="W55" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="X55" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="11:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K56" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="L56" s="32"/>
+      <c r="L56" s="34"/>
       <c r="N56" s="33" t="s">
         <v>108</v>
       </c>
@@ -3237,93 +3270,82 @@
         <v>106</v>
       </c>
       <c r="T56" s="34"/>
-      <c r="W56" s="32" t="s">
+      <c r="W56" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="X56" s="32"/>
-    </row>
-    <row r="57" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="X56" s="35"/>
+    </row>
+    <row r="57" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K57" s="15" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="N57" s="15" t="s">
         <v>5</v>
       </c>
       <c r="O57" s="15" t="s">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="S57" s="15" t="s">
         <v>5</v>
       </c>
       <c r="T57" s="15" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="W57" s="15" t="s">
         <v>5</v>
       </c>
       <c r="X57" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="11:24" x14ac:dyDescent="0.3">
-      <c r="K58" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L58" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="N58" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O58" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="S58" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T58" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="W58" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X58" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="11:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="11:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K60" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="L60" s="20"/>
-      <c r="S60" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="T60" s="23"/>
-      <c r="W60" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="X60" s="20"/>
-    </row>
-    <row r="61" spans="11:24" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K58" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="L58" s="37"/>
+      <c r="N58" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="O58" s="37"/>
+      <c r="S58" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="T58" s="37"/>
+      <c r="W58" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="X58" s="37"/>
+    </row>
+    <row r="59" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K60" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="L60" s="24"/>
+      <c r="S60" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="T60" s="24"/>
+      <c r="W60" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="X60" s="21"/>
+    </row>
+    <row r="61" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K61" s="14" t="s">
         <v>49</v>
       </c>
       <c r="L61" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N61" s="35" t="s">
-        <v>120</v>
-      </c>
       <c r="S61" s="14" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="T61" s="14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="W61" s="14" t="s">
         <v>90</v>
@@ -3332,131 +3354,125 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="11:24" x14ac:dyDescent="0.3">
-      <c r="K62" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L62" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="S62" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="T62" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="W62" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X62" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="11:24" x14ac:dyDescent="0.3">
-      <c r="K63" s="32" t="s">
+    <row r="62" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K62" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L62" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="T62" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="W62" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="X62" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K63" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="L63" s="32"/>
-      <c r="S63" s="36"/>
-      <c r="T63" s="37"/>
-      <c r="W63" s="32" t="s">
+      <c r="L63" s="34"/>
+      <c r="S63" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="T63" s="34"/>
+      <c r="W63" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="X63" s="32"/>
-    </row>
-    <row r="64" spans="11:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X63" s="35"/>
+    </row>
+    <row r="64" spans="11:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K64" s="15" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="L64" s="15" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="S64" s="15" t="s">
         <v>5</v>
       </c>
       <c r="T64" s="15" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="W64" s="15" t="s">
         <v>5</v>
       </c>
       <c r="X64" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="11:24" x14ac:dyDescent="0.3">
-      <c r="K65" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L65" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="S65" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T65" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="W65" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X65" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="11:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="67" spans="11:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="S67" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="T67" s="23"/>
-    </row>
-    <row r="68" spans="11:24" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K65" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="L65" s="37"/>
+      <c r="S65" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="T65" s="37"/>
+      <c r="W65" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="X65" s="37"/>
+    </row>
+    <row r="66" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S67" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="T67" s="24"/>
+    </row>
+    <row r="68" spans="11:24" x14ac:dyDescent="0.25">
       <c r="S68" s="14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T68" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="11:24" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="11:24" x14ac:dyDescent="0.25">
       <c r="S69" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T69" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="T69" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="11:24" x14ac:dyDescent="0.25">
       <c r="S70" s="33" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="T70" s="34"/>
     </row>
-    <row r="71" spans="11:24" x14ac:dyDescent="0.3">
+    <row r="71" spans="11:24" x14ac:dyDescent="0.25">
       <c r="S71" s="15" t="s">
         <v>5</v>
       </c>
       <c r="T71" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="11:24" x14ac:dyDescent="0.3">
-      <c r="S72" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T72" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="11:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="11:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="S74" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="T74" s="23"/>
-    </row>
-    <row r="75" spans="11:24" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="S72" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="T72" s="37"/>
+    </row>
+    <row r="73" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S74" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="T74" s="24"/>
+    </row>
+    <row r="75" spans="11:24" x14ac:dyDescent="0.25">
       <c r="S75" s="14" t="s">
         <v>69</v>
       </c>
@@ -3464,47 +3480,75 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="11:24" x14ac:dyDescent="0.3">
-      <c r="S76" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="T76" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="11:24" x14ac:dyDescent="0.3">
+    <row r="76" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="S76" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="T76" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="11:24" x14ac:dyDescent="0.25">
       <c r="S77" s="33" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="T77" s="34"/>
     </row>
-    <row r="78" spans="11:24" x14ac:dyDescent="0.3">
+    <row r="78" spans="11:24" x14ac:dyDescent="0.25">
       <c r="S78" s="15" t="s">
         <v>5</v>
       </c>
       <c r="T78" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="11:24" x14ac:dyDescent="0.3">
-      <c r="S79" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T79" s="15" t="s">
-        <v>6</v>
-      </c>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="S79" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="T79" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
+  <mergeCells count="91">
     <mergeCell ref="S77:T77"/>
+    <mergeCell ref="S79:T79"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="S72:T72"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="W65:X65"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="S51:T51"/>
     <mergeCell ref="S70:T70"/>
     <mergeCell ref="W63:X63"/>
-    <mergeCell ref="S67:T67"/>
-    <mergeCell ref="K60:L60"/>
     <mergeCell ref="W60:X60"/>
     <mergeCell ref="S60:T60"/>
     <mergeCell ref="S63:T63"/>
-    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="S67:T67"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="S74:T74"/>
     <mergeCell ref="S53:T53"/>
     <mergeCell ref="W53:X53"/>
     <mergeCell ref="N53:O53"/>
@@ -3513,14 +3557,16 @@
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="S56:T56"/>
     <mergeCell ref="W56:X56"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="K58:L58"/>
     <mergeCell ref="W42:X42"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="N46:O46"/>
     <mergeCell ref="S46:T46"/>
     <mergeCell ref="W46:X46"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="W32:X32"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="N49:O49"/>
     <mergeCell ref="S49:T49"/>
@@ -3533,17 +3579,12 @@
     <mergeCell ref="N39:O39"/>
     <mergeCell ref="S39:T39"/>
     <mergeCell ref="W39:X39"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="S42:T42"/>
     <mergeCell ref="N12:S12"/>
     <mergeCell ref="K15:L16"/>
     <mergeCell ref="N15:O16"/>
     <mergeCell ref="S15:T16"/>
     <mergeCell ref="W15:X16"/>
-    <mergeCell ref="S74:T74"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="S18:T18"/>
@@ -3559,8 +3600,10 @@
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="S28:T28"/>
+    <mergeCell ref="W28:X28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="30" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projektmanagement/Projektstrukturplan/Projektstrukturplan.xlsx
+++ b/Projektmanagement/Projektstrukturplan/Projektstrukturplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\5.Klasse\Diplomarbeit\Dokumentation\Projektpläne\Projektstrukturplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\5.Klasse\SWP\Coding\Diplomarbeit-FahrgemeinschaftenApp\Projektmanagement\Projektstrukturplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30A0CA9-38B0-4A26-ACDD-08F17D3FF182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462552F3-679A-4819-932C-2B25A303C025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="153">
   <si>
     <t>Projektstart</t>
   </si>
@@ -430,27 +430,15 @@
     <t>Termin bis: 20.10.2023</t>
   </si>
   <si>
-    <t>Termin bis: 03.03.2024</t>
-  </si>
-  <si>
     <t>Termin bis: 15.03.2024</t>
   </si>
   <si>
-    <t>Termin bis: 22.03.2024</t>
-  </si>
-  <si>
-    <t>Termin bis: 28.03.2024</t>
-  </si>
-  <si>
     <t>Termin bis: 30.03.2024</t>
   </si>
   <si>
     <t>Termin bis: 10.03.2024</t>
   </si>
   <si>
-    <t>Termin bis: 26.03.2024</t>
-  </si>
-  <si>
     <t>Termin bis: 02.04.2024</t>
   </si>
   <si>
@@ -470,6 +458,33 @@
   </si>
   <si>
     <t>Diplomarbeit abgeschlossen</t>
+  </si>
+  <si>
+    <t>Termin bis: 03.02.2024</t>
+  </si>
+  <si>
+    <t>Termin bis: 10.02.2024</t>
+  </si>
+  <si>
+    <t>Termin bis: 15.02.2024</t>
+  </si>
+  <si>
+    <t>Termin bis: 22.02.2024</t>
+  </si>
+  <si>
+    <t>Termin bis: 26.02.2024</t>
+  </si>
+  <si>
+    <t>Termin bis: 28.02.2024</t>
+  </si>
+  <si>
+    <t>Termin bis: 29.02.2024</t>
+  </si>
+  <si>
+    <t>Termin bis: 01.03.2024</t>
+  </si>
+  <si>
+    <t>Termin bis: 02.03.2024</t>
   </si>
 </sst>
 </file>
@@ -859,27 +874,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -895,7 +889,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -904,14 +919,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1248,18 +1263,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="S1" s="32" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="S1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="32"/>
+      <c r="T1" s="26"/>
     </row>
     <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="6"/>
@@ -1286,52 +1301,52 @@
       <c r="O3" s="12"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="E4" s="27" t="s">
+      <c r="C4" s="21"/>
+      <c r="E4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="J4" s="27" t="s">
+      <c r="F4" s="21"/>
+      <c r="J4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="28"/>
-      <c r="N4" s="27" t="s">
+      <c r="K4" s="21"/>
+      <c r="N4" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="28"/>
+      <c r="O4" s="21"/>
     </row>
     <row r="5" spans="2:20" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="30"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="30"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="23"/>
     </row>
     <row r="6" spans="2:20" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="E7" s="20" t="s">
+      <c r="C7" s="28"/>
+      <c r="E7" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="J7" s="20" t="s">
+      <c r="F7" s="28"/>
+      <c r="J7" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="N7" s="20" t="s">
+      <c r="K7" s="28"/>
+      <c r="N7" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="O7" s="21"/>
+      <c r="O7" s="28"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -1386,22 +1401,22 @@
       </c>
     </row>
     <row r="10" spans="2:20" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="E10" s="22" t="s">
+      <c r="C10" s="25"/>
+      <c r="E10" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="J10" s="22" t="s">
+      <c r="F10" s="25"/>
+      <c r="J10" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="N10" s="22" t="s">
+      <c r="K10" s="25"/>
+      <c r="N10" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="O10" s="22"/>
+      <c r="O10" s="25"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
@@ -1461,22 +1476,22 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="E14" s="20" t="s">
+      <c r="C14" s="28"/>
+      <c r="E14" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="J14" s="20" t="s">
+      <c r="F14" s="28"/>
+      <c r="J14" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="21"/>
-      <c r="N14" s="20" t="s">
+      <c r="K14" s="28"/>
+      <c r="N14" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="O14" s="21"/>
+      <c r="O14" s="28"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -1531,22 +1546,22 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="E17" s="22" t="s">
+      <c r="C17" s="25"/>
+      <c r="E17" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="J17" s="22" t="s">
+      <c r="F17" s="25"/>
+      <c r="J17" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="22"/>
-      <c r="N17" s="22" t="s">
+      <c r="K17" s="25"/>
+      <c r="N17" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="O17" s="22"/>
+      <c r="O17" s="25"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
@@ -1606,22 +1621,22 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="E21" s="20" t="s">
+      <c r="C21" s="28"/>
+      <c r="E21" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="J21" s="20" t="s">
+      <c r="F21" s="28"/>
+      <c r="J21" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="K21" s="21"/>
-      <c r="N21" s="20" t="s">
+      <c r="K21" s="28"/>
+      <c r="N21" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="O21" s="21"/>
+      <c r="O21" s="28"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
@@ -1676,22 +1691,22 @@
       </c>
     </row>
     <row r="24" spans="2:15" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="E24" s="22" t="s">
+      <c r="C24" s="25"/>
+      <c r="E24" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="J24" s="22" t="s">
+      <c r="F24" s="25"/>
+      <c r="J24" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="K24" s="22"/>
-      <c r="N24" s="22" t="s">
+      <c r="K24" s="25"/>
+      <c r="N24" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="O24" s="22"/>
+      <c r="O24" s="25"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
@@ -1751,22 +1766,22 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="E28" s="20" t="s">
+      <c r="C28" s="28"/>
+      <c r="E28" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="J28" s="20" t="s">
+      <c r="F28" s="28"/>
+      <c r="J28" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="K28" s="21"/>
-      <c r="N28" s="20" t="s">
+      <c r="K28" s="28"/>
+      <c r="N28" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="O28" s="21"/>
+      <c r="O28" s="28"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
@@ -1821,22 +1836,22 @@
       </c>
     </row>
     <row r="31" spans="2:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="E31" s="22" t="s">
+      <c r="C31" s="25"/>
+      <c r="E31" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="J31" s="22" t="s">
+      <c r="F31" s="25"/>
+      <c r="J31" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="K31" s="22"/>
-      <c r="N31" s="22" t="s">
+      <c r="K31" s="25"/>
+      <c r="N31" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="O31" s="22"/>
+      <c r="O31" s="25"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
@@ -1896,22 +1911,22 @@
       <c r="K34" s="5"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="E35" s="20" t="s">
+      <c r="C35" s="28"/>
+      <c r="E35" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="J35" s="20" t="s">
+      <c r="F35" s="28"/>
+      <c r="J35" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="K35" s="21"/>
-      <c r="N35" s="20" t="s">
+      <c r="K35" s="28"/>
+      <c r="N35" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="O35" s="21"/>
+      <c r="O35" s="28"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
@@ -1966,22 +1981,22 @@
       </c>
     </row>
     <row r="38" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="E38" s="22" t="s">
+      <c r="C38" s="25"/>
+      <c r="E38" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="22"/>
-      <c r="J38" s="22" t="s">
+      <c r="F38" s="25"/>
+      <c r="J38" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K38" s="22"/>
-      <c r="N38" s="22" t="s">
+      <c r="K38" s="25"/>
+      <c r="N38" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="O38" s="22"/>
+      <c r="O38" s="25"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
@@ -2041,18 +2056,18 @@
       <c r="K41" s="5"/>
     </row>
     <row r="42" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="J42" s="23" t="s">
+      <c r="C42" s="28"/>
+      <c r="J42" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="K42" s="24"/>
-      <c r="N42" s="20" t="s">
+      <c r="K42" s="32"/>
+      <c r="N42" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="O42" s="21"/>
+      <c r="O42" s="28"/>
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
@@ -2061,10 +2076,10 @@
       <c r="C43" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="21"/>
+      <c r="F43" s="28"/>
       <c r="J43" s="3" t="s">
         <v>26</v>
       </c>
@@ -2105,24 +2120,24 @@
       </c>
     </row>
     <row r="45" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="22"/>
+      <c r="C45" s="25"/>
       <c r="E45" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J45" s="25" t="s">
+      <c r="J45" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="K45" s="26"/>
-      <c r="N45" s="22" t="s">
+      <c r="K45" s="30"/>
+      <c r="N45" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="O45" s="22"/>
+      <c r="O45" s="25"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
@@ -2131,10 +2146,10 @@
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F46" s="22"/>
+      <c r="F46" s="25"/>
       <c r="J46" s="2" t="s">
         <v>5</v>
       </c>
@@ -2183,18 +2198,18 @@
       </c>
     </row>
     <row r="49" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="J49" s="23" t="s">
+      <c r="C49" s="28"/>
+      <c r="J49" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="K49" s="24"/>
-      <c r="N49" s="20" t="s">
+      <c r="K49" s="32"/>
+      <c r="N49" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="O49" s="21"/>
+      <c r="O49" s="28"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
@@ -2237,18 +2252,18 @@
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="J52" s="25" t="s">
+      <c r="C52" s="25"/>
+      <c r="J52" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="K52" s="26"/>
-      <c r="N52" s="22" t="s">
+      <c r="K52" s="30"/>
+      <c r="N52" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="O52" s="22"/>
+      <c r="O52" s="25"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
@@ -2292,10 +2307,10 @@
     </row>
     <row r="55" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J56" s="23" t="s">
+      <c r="J56" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="K56" s="24"/>
+      <c r="K56" s="32"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J57" s="3" t="s">
@@ -2314,10 +2329,10 @@
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J59" s="25" t="s">
+      <c r="J59" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="K59" s="26"/>
+      <c r="K59" s="30"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J60" s="2" t="s">
@@ -2337,31 +2352,27 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J21:K21"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="B49:C49"/>
@@ -2378,27 +2389,31 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E28:F28"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2412,8 +2427,8 @@
   </sheetPr>
   <dimension ref="C12:X79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AA60" sqref="AA60"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12:X79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2429,14 +2444,14 @@
   </cols>
   <sheetData>
     <row r="12" spans="11:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="N12" s="31" t="s">
+      <c r="N12" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
     </row>
     <row r="13" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="6"/>
@@ -2462,52 +2477,52 @@
       <c r="X14" s="12"/>
     </row>
     <row r="15" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K15" s="27" t="s">
+      <c r="K15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="28"/>
-      <c r="N15" s="27" t="s">
+      <c r="L15" s="21"/>
+      <c r="N15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="28"/>
-      <c r="S15" s="27" t="s">
+      <c r="O15" s="21"/>
+      <c r="S15" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="T15" s="28"/>
-      <c r="W15" s="27" t="s">
+      <c r="T15" s="21"/>
+      <c r="W15" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="X15" s="28"/>
+      <c r="X15" s="21"/>
     </row>
     <row r="16" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K16" s="29"/>
-      <c r="L16" s="30"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="30"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="30"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="30"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="23"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="23"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="23"/>
     </row>
     <row r="17" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K18" s="23" t="s">
+      <c r="K18" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="24"/>
-      <c r="N18" s="23" t="s">
+      <c r="L18" s="32"/>
+      <c r="N18" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="O18" s="24"/>
-      <c r="S18" s="23" t="s">
+      <c r="O18" s="32"/>
+      <c r="S18" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="T18" s="24"/>
-      <c r="W18" s="20" t="s">
+      <c r="T18" s="32"/>
+      <c r="W18" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="X18" s="21"/>
+      <c r="X18" s="28"/>
     </row>
     <row r="19" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C19" s="17"/>
@@ -2577,10 +2592,10 @@
         <v>120</v>
       </c>
       <c r="T21" s="34"/>
-      <c r="W21" s="35" t="s">
+      <c r="W21" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="X21" s="35"/>
+      <c r="X21" s="37"/>
     </row>
     <row r="22" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C22" s="18"/>
@@ -2600,33 +2615,33 @@
         <v>5</v>
       </c>
       <c r="T22" s="15" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="W22" s="15" t="s">
         <v>5</v>
       </c>
       <c r="X22" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C23" s="17"/>
-      <c r="K23" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="L23" s="37"/>
-      <c r="N23" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="O23" s="37"/>
-      <c r="S23" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="T23" s="37"/>
-      <c r="W23" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="X23" s="37"/>
+      <c r="K23" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="36"/>
+      <c r="N23" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="36"/>
+      <c r="S23" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="T23" s="36"/>
+      <c r="W23" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="X23" s="36"/>
     </row>
     <row r="24" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="18"/>
@@ -2636,22 +2651,22 @@
     </row>
     <row r="25" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="17"/>
-      <c r="K25" s="23" t="s">
+      <c r="K25" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="L25" s="24"/>
-      <c r="N25" s="23" t="s">
+      <c r="L25" s="32"/>
+      <c r="N25" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="O25" s="24"/>
-      <c r="S25" s="23" t="s">
+      <c r="O25" s="32"/>
+      <c r="S25" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="T25" s="24"/>
-      <c r="W25" s="20" t="s">
+      <c r="T25" s="32"/>
+      <c r="W25" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="X25" s="21"/>
+      <c r="X25" s="28"/>
     </row>
     <row r="26" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C26" s="17"/>
@@ -2720,14 +2735,14 @@
         <v>101</v>
       </c>
       <c r="T28" s="34"/>
-      <c r="W28" s="35" t="s">
+      <c r="W28" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="X28" s="35"/>
+      <c r="X28" s="37"/>
     </row>
     <row r="29" spans="3:24" x14ac:dyDescent="0.25">
       <c r="K29" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L29" s="15" t="s">
         <v>125</v>
@@ -2742,32 +2757,32 @@
         <v>5</v>
       </c>
       <c r="T29" s="15" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="W29" s="15" t="s">
         <v>5</v>
       </c>
       <c r="X29" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="K30" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="L30" s="37"/>
-      <c r="N30" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="O30" s="37"/>
-      <c r="S30" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="T30" s="37"/>
-      <c r="W30" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="X30" s="37"/>
+      <c r="K30" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="36"/>
+      <c r="N30" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" s="36"/>
+      <c r="S30" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="T30" s="36"/>
+      <c r="W30" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="X30" s="36"/>
     </row>
     <row r="31" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L31" s="5"/>
@@ -2775,22 +2790,22 @@
       <c r="T31" s="5"/>
     </row>
     <row r="32" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K32" s="23" t="s">
+      <c r="K32" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="L32" s="24"/>
-      <c r="N32" s="23" t="s">
+      <c r="L32" s="32"/>
+      <c r="N32" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="O32" s="24"/>
-      <c r="S32" s="23" t="s">
+      <c r="O32" s="32"/>
+      <c r="S32" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="T32" s="24"/>
-      <c r="W32" s="20" t="s">
+      <c r="T32" s="32"/>
+      <c r="W32" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="X32" s="21"/>
+      <c r="X32" s="28"/>
     </row>
     <row r="33" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K33" s="14" t="s">
@@ -2857,14 +2872,14 @@
         <v>121</v>
       </c>
       <c r="T35" s="34"/>
-      <c r="W35" s="35" t="s">
+      <c r="W35" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="X35" s="35"/>
+      <c r="X35" s="37"/>
     </row>
     <row r="36" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K36" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L36" s="15" t="s">
         <v>125</v>
@@ -2879,32 +2894,32 @@
         <v>5</v>
       </c>
       <c r="T36" s="15" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="W36" s="15" t="s">
         <v>5</v>
       </c>
       <c r="X36" s="15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K37" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="L37" s="37"/>
-      <c r="N37" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="O37" s="37"/>
-      <c r="S37" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="T37" s="37"/>
-      <c r="W37" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="X37" s="37"/>
+      <c r="K37" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L37" s="36"/>
+      <c r="N37" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="O37" s="36"/>
+      <c r="S37" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="T37" s="36"/>
+      <c r="W37" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="X37" s="36"/>
     </row>
     <row r="38" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L38" s="5"/>
@@ -2912,22 +2927,22 @@
       <c r="T38" s="5"/>
     </row>
     <row r="39" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K39" s="23" t="s">
+      <c r="K39" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="L39" s="24"/>
-      <c r="N39" s="23" t="s">
+      <c r="L39" s="32"/>
+      <c r="N39" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="O39" s="24"/>
-      <c r="S39" s="23" t="s">
+      <c r="O39" s="32"/>
+      <c r="S39" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="T39" s="24"/>
-      <c r="W39" s="20" t="s">
+      <c r="T39" s="32"/>
+      <c r="W39" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="X39" s="21"/>
+      <c r="X39" s="28"/>
     </row>
     <row r="40" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K40" s="14" t="s">
@@ -2994,14 +3009,14 @@
         <v>123</v>
       </c>
       <c r="T42" s="34"/>
-      <c r="W42" s="35" t="s">
+      <c r="W42" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="X42" s="35"/>
+      <c r="X42" s="37"/>
     </row>
     <row r="43" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K43" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L43" s="15" t="s">
         <v>126</v>
@@ -3016,34 +3031,34 @@
         <v>5</v>
       </c>
       <c r="T43" s="15" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="W43" s="15" t="s">
         <v>5</v>
       </c>
       <c r="X43" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K44" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="L44" s="37"/>
+      <c r="K44" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L44" s="36"/>
       <c r="N44" s="15" t="s">
         <v>7</v>
       </c>
       <c r="O44" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="S44" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="T44" s="37"/>
-      <c r="W44" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="X44" s="37"/>
+      <c r="S44" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="T44" s="36"/>
+      <c r="W44" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="X44" s="36"/>
     </row>
     <row r="45" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L45" s="5"/>
@@ -3051,22 +3066,22 @@
       <c r="T45" s="5"/>
     </row>
     <row r="46" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K46" s="23" t="s">
+      <c r="K46" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="L46" s="24"/>
-      <c r="N46" s="23" t="s">
+      <c r="L46" s="32"/>
+      <c r="N46" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="O46" s="24"/>
-      <c r="S46" s="23" t="s">
+      <c r="O46" s="32"/>
+      <c r="S46" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="T46" s="24"/>
-      <c r="W46" s="20" t="s">
+      <c r="T46" s="32"/>
+      <c r="W46" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="X46" s="21"/>
+      <c r="X46" s="28"/>
     </row>
     <row r="47" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K47" s="14" t="s">
@@ -3133,14 +3148,14 @@
         <v>105</v>
       </c>
       <c r="T49" s="34"/>
-      <c r="W49" s="35" t="s">
+      <c r="W49" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="X49" s="35"/>
+      <c r="X49" s="37"/>
     </row>
     <row r="50" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K50" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L50" s="15" t="s">
         <v>126</v>
@@ -3155,32 +3170,32 @@
         <v>5</v>
       </c>
       <c r="T50" s="15" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="W50" s="15" t="s">
         <v>5</v>
       </c>
       <c r="X50" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K51" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="L51" s="37"/>
-      <c r="N51" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="O51" s="37"/>
-      <c r="S51" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="T51" s="37"/>
-      <c r="W51" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="X51" s="37"/>
+      <c r="K51" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L51" s="36"/>
+      <c r="N51" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="O51" s="36"/>
+      <c r="S51" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="T51" s="36"/>
+      <c r="W51" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="X51" s="36"/>
     </row>
     <row r="52" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L52" s="5"/>
@@ -3188,22 +3203,22 @@
       <c r="T52" s="5"/>
     </row>
     <row r="53" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K53" s="23" t="s">
+      <c r="K53" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="L53" s="24"/>
-      <c r="N53" s="23" t="s">
+      <c r="L53" s="32"/>
+      <c r="N53" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="O53" s="24"/>
-      <c r="S53" s="23" t="s">
+      <c r="O53" s="32"/>
+      <c r="S53" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="T53" s="24"/>
-      <c r="W53" s="20" t="s">
+      <c r="T53" s="32"/>
+      <c r="W53" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="X53" s="21"/>
+      <c r="X53" s="28"/>
     </row>
     <row r="54" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K54" s="14" t="s">
@@ -3270,14 +3285,14 @@
         <v>106</v>
       </c>
       <c r="T56" s="34"/>
-      <c r="W56" s="35" t="s">
+      <c r="W56" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="X56" s="35"/>
+      <c r="X56" s="37"/>
     </row>
     <row r="57" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K57" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L57" s="15" t="s">
         <v>127</v>
@@ -3292,47 +3307,47 @@
         <v>5</v>
       </c>
       <c r="T57" s="15" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="W57" s="15" t="s">
         <v>5</v>
       </c>
       <c r="X57" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K58" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="L58" s="37"/>
-      <c r="N58" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="O58" s="37"/>
-      <c r="S58" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="T58" s="37"/>
-      <c r="W58" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="X58" s="37"/>
+      <c r="K58" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L58" s="36"/>
+      <c r="N58" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="O58" s="36"/>
+      <c r="S58" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="T58" s="36"/>
+      <c r="W58" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="X58" s="36"/>
     </row>
     <row r="59" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K60" s="23" t="s">
+      <c r="K60" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="L60" s="24"/>
-      <c r="S60" s="23" t="s">
+      <c r="L60" s="32"/>
+      <c r="S60" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="T60" s="24"/>
-      <c r="W60" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="X60" s="21"/>
+      <c r="T60" s="32"/>
+      <c r="W60" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="X60" s="28"/>
     </row>
     <row r="61" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K61" s="14" t="s">
@@ -3383,14 +3398,14 @@
         <v>67</v>
       </c>
       <c r="T63" s="34"/>
-      <c r="W63" s="35" t="s">
+      <c r="W63" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="X63" s="35"/>
+      <c r="X63" s="37"/>
     </row>
     <row r="64" spans="11:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K64" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L64" s="15" t="s">
         <v>128</v>
@@ -3399,35 +3414,35 @@
         <v>5</v>
       </c>
       <c r="T64" s="15" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="W64" s="15" t="s">
         <v>5</v>
       </c>
       <c r="X64" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K65" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="L65" s="37"/>
-      <c r="S65" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="T65" s="37"/>
-      <c r="W65" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="X65" s="37"/>
+      <c r="K65" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L65" s="36"/>
+      <c r="S65" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="T65" s="36"/>
+      <c r="W65" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="X65" s="36"/>
     </row>
     <row r="66" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S67" s="23" t="s">
+      <c r="S67" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="T67" s="24"/>
+      <c r="T67" s="32"/>
     </row>
     <row r="68" spans="11:24" x14ac:dyDescent="0.25">
       <c r="S68" s="14" t="s">
@@ -3456,21 +3471,21 @@
         <v>5</v>
       </c>
       <c r="T71" s="15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="S72" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="T72" s="37"/>
+      <c r="S72" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="T72" s="36"/>
     </row>
     <row r="73" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S74" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="T74" s="24"/>
+      <c r="S74" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="T74" s="32"/>
     </row>
     <row r="75" spans="11:24" x14ac:dyDescent="0.25">
       <c r="S75" s="14" t="s">
@@ -3499,17 +3514,92 @@
         <v>5</v>
       </c>
       <c r="T78" s="15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="S79" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="T79" s="37"/>
+      <c r="S79" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="T79" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="91">
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="N12:S12"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="S15:T16"/>
+    <mergeCell ref="W15:X16"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="S74:T74"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="W63:X63"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="S63:T63"/>
+    <mergeCell ref="S67:T67"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="S72:T72"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="W65:X65"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="S70:T70"/>
     <mergeCell ref="S77:T77"/>
     <mergeCell ref="S79:T79"/>
     <mergeCell ref="K65:L65"/>
@@ -3526,81 +3616,6 @@
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="K42:L42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="S72:T72"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="W65:X65"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="W63:X63"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="S63:T63"/>
-    <mergeCell ref="S67:T67"/>
-    <mergeCell ref="S65:T65"/>
-    <mergeCell ref="S74:T74"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="W56:X56"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="N12:S12"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="N15:O16"/>
-    <mergeCell ref="S15:T16"/>
-    <mergeCell ref="W15:X16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="W28:X28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
